--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/comparison_areas.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/comparison_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\interpolation\combined_feature_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF7EA8-DB6E-4232-B9F8-FFCC14068540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2351BD09-BB53-474A-9368-9889152CB4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA85E2DB-5D01-4214-9D4D-3B0C9A6B185E}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBA17AE-F5B6-4BAA-AB65-7E73791AF0D9}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,210 +501,210 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>9213</v>
+        <v>49272</v>
       </c>
       <c r="C2">
         <f>B2/$B$6*100</f>
-        <v>16.626062476314221</v>
+        <v>88.917762979806184</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6021</v>
+        <v>21355</v>
       </c>
       <c r="G2">
         <f>F2/$F$6*100</f>
-        <v>12.80001700716427</v>
+        <v>45.398499117753353</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9305</v>
+        <v>28671</v>
       </c>
       <c r="K2">
         <f>J2/$J$6*100</f>
-        <v>17.087503443209989</v>
+        <v>52.650812597557618</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9591</v>
+        <v>19394</v>
       </c>
       <c r="O2">
         <f>N2/$N$6*100</f>
-        <v>16.125018914238641</v>
+        <v>32.606466147715999</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6139</v>
+        <v>49427</v>
       </c>
       <c r="S2">
         <f>R2/$R$6*100</f>
-        <v>10.196150077230978</v>
+        <v>82.09237821588134</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>17501</v>
+        <v>2634</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C6" si="0">B3/$B$6*100</f>
-        <v>31.582841571472397</v>
+        <v>4.7533972172594874</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>11797</v>
+        <v>4491</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G6" si="1">F3/$F$6*100</f>
-        <v>25.079189608622631</v>
+        <v>9.5473968409192373</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>15628</v>
+        <v>3120</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" si="2">J3/$J$6*100</f>
-        <v>28.698925718483153</v>
+        <v>5.7295014231934625</v>
       </c>
       <c r="M3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>18362</v>
+        <v>1327</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O6" si="3">N3/$N$6*100</f>
-        <v>30.871399989912408</v>
+        <v>2.2310395265555911</v>
       </c>
       <c r="Q3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>16519</v>
+        <v>1400</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S6" si="4">R3/$R$6*100</f>
-        <v>27.436097593383046</v>
+        <v>2.3252337690378515</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>17972</v>
+        <v>1219</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>32.432822622850232</v>
+        <v>2.1998448017613197</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>18651</v>
+        <v>7724</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>39.650077595186971</v>
+        <v>16.42041710070367</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>18400</v>
+        <v>12159</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>33.789367367551186</v>
+        <v>22.328528142502986</v>
       </c>
       <c r="M4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>19984</v>
+        <v>3531</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>33.598412885219993</v>
+        <v>5.9365490341128799</v>
       </c>
       <c r="Q4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>23621</v>
+        <v>3936</v>
       </c>
       <c r="S4">
         <f t="shared" si="4"/>
-        <v>39.231676327459347</v>
+        <v>6.5372286535235595</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10727</v>
+        <v>2288</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>19.358273329363147</v>
+        <v>4.1289950011730099</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>10570</v>
+        <v>13469</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>22.470715789026126</v>
+        <v>28.633686940623736</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>11122</v>
+        <v>10505</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>20.424203470755671</v>
+        <v>19.291157836745938</v>
       </c>
       <c r="M5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>11542</v>
+        <v>35227</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>19.405168210628961</v>
+        <v>59.225945291615524</v>
       </c>
       <c r="Q5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>13930</v>
+        <v>5446</v>
       </c>
       <c r="S5">
         <f t="shared" si="4"/>
-        <v>23.136076001926622</v>
+        <v>9.0451593615572428</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -769,13 +769,13 @@
       </c>
       <c r="B11">
         <f>B2+F2+J2+N2+R2</f>
-        <v>40269</v>
+        <v>168119</v>
       </c>
       <c r="C11">
         <f>B11/$B$15*100</f>
-        <v>14.558831504546358</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>60.781648258283774</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3"/>
     </row>
@@ -785,13 +785,13 @@
       </c>
       <c r="B12">
         <f t="shared" ref="B12:B15" si="5">B3+F3+J3+N3+R3</f>
-        <v>79807</v>
+        <v>12972</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C15" si="6">B12/$B$15*100</f>
-        <v>28.853377682170684</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>4.6898895497026336</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
     </row>
@@ -801,13 +801,13 @@
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>98628</v>
+        <v>28569</v>
       </c>
       <c r="C13">
         <f t="shared" si="6"/>
-        <v>35.657911386684503</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>10.328820116054159</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="J13" s="4"/>
       <c r="K13" s="3"/>
     </row>
@@ -817,13 +817,13 @@
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>57891</v>
+        <v>66935</v>
       </c>
       <c r="C14">
         <f t="shared" si="6"/>
-        <v>20.929879426598454</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>24.199642075959435</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3"/>
     </row>
@@ -836,9 +836,12 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="H15" s="1"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
